--- a/src/main/java/testData/testdata.xlsx
+++ b/src/main/java/testData/testdata.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="40" windowWidth="19100" windowHeight="7300" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="40" windowWidth="19100" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="add customer" sheetId="2" r:id="rId2"/>
+    <sheet name="dataprovider" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>User Name</t>
   </si>
@@ -62,9 +63,6 @@
     <t>ram@email.com</t>
   </si>
   <si>
-    <t>Techfios</t>
-  </si>
-  <si>
     <t>33 n state</t>
   </si>
   <si>
@@ -93,6 +91,15 @@
   </si>
   <si>
     <t>Customer List</t>
+  </si>
+  <si>
+    <t>Walgreen</t>
+  </si>
+  <si>
+    <t>demo1@codefios.com</t>
+  </si>
+  <si>
+    <t>demo2@codefios.com</t>
   </si>
 </sst>
 </file>
@@ -160,7 +167,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -171,6 +178,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -492,14 +500,24 @@
     </row>
     <row r="2" spans="1:3" ht="18.5">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -558,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -569,31 +587,31 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>1234567890</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G2" s="3">
         <v>60605</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -603,4 +621,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.5">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.5">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.5">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="ram@email.com"/>
+    <hyperlink ref="B5" r:id="rId2" display="ram@email.com"/>
+    <hyperlink ref="B6" r:id="rId3" display="ram@email.com"/>
+    <hyperlink ref="B7" r:id="rId4" display="ram@email.com"/>
+    <hyperlink ref="B3" r:id="rId5" display="ram@email.com"/>
+    <hyperlink ref="B4" r:id="rId6" display="ram@email.com"/>
+    <hyperlink ref="A3" r:id="rId7"/>
+    <hyperlink ref="A4" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>